--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_276__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_276__Reeval_Sobol_Modell_1.1.xlsx
@@ -6118,10 +6118,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>2.495105743408203</c:v>
+                  <c:v>2.495103597640991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.86764144897461</c:v>
+                  <c:v>42.86764526367188</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-2.519651174545288</c:v>
@@ -6133,10 +6133,10 @@
                   <c:v>30.90488052368164</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.217176675796509</c:v>
+                  <c:v>-2.217171907424927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.913926839828491</c:v>
+                  <c:v>2.913924694061279</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>50.50135040283203</c:v>
@@ -6145,19 +6145,19 @@
                   <c:v>48.43464660644531</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1365358233451843</c:v>
+                  <c:v>0.136531263589859</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-2.774152040481567</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.661520957946777</c:v>
+                  <c:v>-3.661516189575195</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-2.122628688812256</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.44268417358398</c:v>
+                  <c:v>46.44268035888672</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>48.21834945678711</c:v>
@@ -6166,7 +6166,7 @@
                   <c:v>50.7188606262207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.01099395751953</c:v>
+                  <c:v>49.0109977722168</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>41.63140487670898</c:v>
@@ -6175,40 +6175,40 @@
                   <c:v>49.03936386108398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.5184440612793</c:v>
+                  <c:v>49.51844024658203</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39.86136245727539</c:v>
+                  <c:v>39.86135864257812</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>43.99576187133789</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.69863748550415</c:v>
+                  <c:v>-2.698644399642944</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>46.51232147216797</c:v>
+                  <c:v>46.5123176574707</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>48.92709732055664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.783705234527588</c:v>
+                  <c:v>-2.783702850341797</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-3.769524574279785</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.387279987335205</c:v>
+                  <c:v>-2.387275218963623</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49.87118911743164</c:v>
+                  <c:v>49.87119674682617</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.753023147583008</c:v>
+                  <c:v>5.7530198097229</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49.87672805786133</c:v>
+                  <c:v>49.8767204284668</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1.312027812004089</c:v>
@@ -6217,16 +6217,16 @@
                   <c:v>-0.6070348620414734</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3.067925691604614</c:v>
+                  <c:v>-3.067930221557617</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-2.062231779098511</c:v>
+                  <c:v>-2.062233924865723</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-4.881396293640137</c:v>
+                  <c:v>-4.881398677825928</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.602357149124146</c:v>
+                  <c:v>-2.602355003356934</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-2.840619087219238</c:v>
@@ -6238,25 +6238,25 @@
                   <c:v>29.78484535217285</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.7084622383117676</c:v>
+                  <c:v>0.7084599733352661</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.611730456352234</c:v>
+                  <c:v>-1.611725926399231</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2.226283073425293</c:v>
+                  <c:v>-2.226280689239502</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>50.38669586181641</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.193794250488281</c:v>
+                  <c:v>9.193793296813965</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.037137031555176</c:v>
+                  <c:v>-2.037139177322388</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>38.33308792114258</c:v>
+                  <c:v>38.33309173583984</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>47.25580215454102</c:v>
@@ -6265,7 +6265,7 @@
                   <c:v>-0.6230960488319397</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>35.3004264831543</c:v>
+                  <c:v>35.30043029785156</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-3.225036144256592</c:v>
@@ -6277,10 +6277,10 @@
                   <c:v>-3.600825309753418</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>46.3277473449707</c:v>
+                  <c:v>46.32775115966797</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>47.66056823730469</c:v>
+                  <c:v>47.66056442260742</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>49.37493896484375</c:v>
@@ -6289,7 +6289,7 @@
                   <c:v>-4.349205493927002</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>45.30196762084961</c:v>
+                  <c:v>45.30197143554688</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>49.5676383972168</c:v>
@@ -6313,22 +6313,22 @@
                   <c:v>45.34393692016602</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-1.154149174690247</c:v>
+                  <c:v>-1.154151558876038</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.836935520172119</c:v>
+                  <c:v>-2.836937665939331</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.792852759361267</c:v>
+                  <c:v>-1.792848229408264</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0178323108702898</c:v>
+                  <c:v>0.01782775297760963</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-3.217192411422729</c:v>
+                  <c:v>-3.217190265655518</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.8180570006370544</c:v>
+                  <c:v>-0.8180615901947021</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>-2.538491010665894</c:v>
@@ -6337,16 +6337,16 @@
                   <c:v>42.09017181396484</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.100948572158813</c:v>
+                  <c:v>1.100944042205811</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-2.027788877487183</c:v>
+                  <c:v>-2.027781963348389</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>-1.970186591148376</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>22.89599990844727</c:v>
+                  <c:v>22.8960018157959</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>-2.837480306625366</c:v>
@@ -6355,31 +6355,31 @@
                   <c:v>53.35119247436523</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-3.769686460494995</c:v>
+                  <c:v>-3.769684076309204</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.892253756523132</c:v>
+                  <c:v>-1.892258286476135</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-0.5465490818023682</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1111584678292274</c:v>
+                  <c:v>0.1111653000116348</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-2.867393732070923</c:v>
+                  <c:v>-2.867398262023926</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>47.22621917724609</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>48.58779144287109</c:v>
+                  <c:v>48.58779907226562</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45.65853881835938</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-2.266372203826904</c:v>
+                  <c:v>-2.266367673873901</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>48.48844146728516</c:v>
@@ -6397,28 +6397,28 @@
                   <c:v>49.81608200073242</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>44.77559661865234</c:v>
+                  <c:v>44.77559280395508</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>-1.388328552246094</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-2.278781652450562</c:v>
+                  <c:v>-2.278779268264771</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-1.873056054115295</c:v>
+                  <c:v>-1.873060584068298</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>42.6789436340332</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.85874080657959</c:v>
+                  <c:v>4.858741760253906</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>12.61934757232666</c:v>
+                  <c:v>12.61934661865234</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>48.58316802978516</c:v>
+                  <c:v>48.58315658569336</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>-2.429582357406616</c:v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.495105743408203</v>
+        <v>2.495103597640991</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>34.7122</v>
       </c>
       <c r="F3">
-        <v>42.86764144897461</v>
+        <v>42.86764526367188</v>
       </c>
       <c r="G3">
         <v>77</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-2.217176675796509</v>
+        <v>-2.217171907424927</v>
       </c>
       <c r="G7">
         <v>77</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.913926839828491</v>
+        <v>2.913924694061279</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1365358233451843</v>
+        <v>0.136531263589859</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-3.661520957946777</v>
+        <v>-3.661516189575195</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>45.6578</v>
       </c>
       <c r="F15">
-        <v>46.44268417358398</v>
+        <v>46.44268035888672</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7511,7 +7511,7 @@
         <v>51.4673</v>
       </c>
       <c r="F18">
-        <v>49.01099395751953</v>
+        <v>49.0109977722168</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>51.6611</v>
       </c>
       <c r="F21">
-        <v>49.5184440612793</v>
+        <v>49.51844024658203</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>34.2646</v>
       </c>
       <c r="F22">
-        <v>39.86136245727539</v>
+        <v>39.86135864257812</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-2.69863748550415</v>
+        <v>-2.698644399642944</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>45.2847</v>
       </c>
       <c r="F25">
-        <v>46.51232147216797</v>
+        <v>46.5123176574707</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-2.783705234527588</v>
+        <v>-2.783702850341797</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-2.387279987335205</v>
+        <v>-2.387275218963623</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>51.3308</v>
       </c>
       <c r="F30">
-        <v>49.87118911743164</v>
+        <v>49.87119674682617</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>51.9912</v>
       </c>
       <c r="F31">
-        <v>5.753023147583008</v>
+        <v>5.7530198097229</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>49.7115</v>
       </c>
       <c r="F32">
-        <v>49.87672805786133</v>
+        <v>49.8767204284668</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-3.067925691604614</v>
+        <v>-3.067930221557617</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-2.062231779098511</v>
+        <v>-2.062233924865723</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>-4.881396293640137</v>
+        <v>-4.881398677825928</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-2.602357149124146</v>
+        <v>-2.602355003356934</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0.7084622383117676</v>
+        <v>0.7084599733352661</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-1.611730456352234</v>
+        <v>-1.611725926399231</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-2.226283073425293</v>
+        <v>-2.226280689239502</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>49.825</v>
       </c>
       <c r="F46">
-        <v>9.193794250488281</v>
+        <v>9.193793296813965</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-2.037137031555176</v>
+        <v>-2.037139177322388</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>60.9577</v>
       </c>
       <c r="F48">
-        <v>38.33308792114258</v>
+        <v>38.33309173583984</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>46.8488</v>
       </c>
       <c r="F51">
-        <v>35.3004264831543</v>
+        <v>35.30043029785156</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>39.3649</v>
       </c>
       <c r="F55">
-        <v>46.3277473449707</v>
+        <v>46.32775115966797</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>48.7071</v>
       </c>
       <c r="F56">
-        <v>47.66056823730469</v>
+        <v>47.66056442260742</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>46.476</v>
       </c>
       <c r="F59">
-        <v>45.30196762084961</v>
+        <v>45.30197143554688</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-1.154149174690247</v>
+        <v>-1.154151558876038</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-2.836935520172119</v>
+        <v>-2.836937665939331</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-1.792852759361267</v>
+        <v>-1.792848229408264</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>38.2901</v>
       </c>
       <c r="F70">
-        <v>0.0178323108702898</v>
+        <v>0.01782775297760963</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-3.217192411422729</v>
+        <v>-3.217190265655518</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-0.8180570006370544</v>
+        <v>-0.8180615901947021</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.100948572158813</v>
+        <v>1.100944042205811</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-2.027788877487183</v>
+        <v>-2.027781963348389</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>43.5154</v>
       </c>
       <c r="F78">
-        <v>22.89599990844727</v>
+        <v>22.8960018157959</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-3.769686460494995</v>
+        <v>-3.769684076309204</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>40.8214</v>
       </c>
       <c r="F82">
-        <v>-1.892253756523132</v>
+        <v>-1.892258286476135</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.1111584678292274</v>
+        <v>0.1111653000116348</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-2.867393732070923</v>
+        <v>-2.867398262023926</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>26.1928</v>
       </c>
       <c r="F87">
-        <v>48.58779144287109</v>
+        <v>48.58779907226562</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-2.266372203826904</v>
+        <v>-2.266367673873901</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.387</v>
       </c>
       <c r="F95">
-        <v>44.77559661865234</v>
+        <v>44.77559280395508</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>-2.278781652450562</v>
+        <v>-2.278779268264771</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>-1.873056054115295</v>
+        <v>-1.873060584068298</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>46.0374</v>
       </c>
       <c r="F100">
-        <v>4.85874080657959</v>
+        <v>4.858741760253906</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>12.61934757232666</v>
+        <v>12.61934661865234</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>44.8161</v>
       </c>
       <c r="F102">
-        <v>48.58316802978516</v>
+        <v>48.58315658569336</v>
       </c>
     </row>
     <row r="103" spans="1:6">
